--- a/utility_saldo_template.xlsx
+++ b/utility_saldo_template.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bagaa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101F1B41-6150-4787-825B-9CA00C02CD17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0313BD-FDE2-405B-9CDF-94FD9D2A969D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10800" xr2:uid="{8F265BB0-790D-4A87-A0F5-C5D59E3F0985}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{8F265BB0-790D-4A87-A0F5-C5D59E3F0985}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Keterangan Field" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,12 +26,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Test 2</t>
-  </si>
-  <si>
-    <t>Test 1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+  <si>
+    <t>Kelompok Akun</t>
+  </si>
+  <si>
+    <t>Kode</t>
+  </si>
+  <si>
+    <t>Nama</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Debit/Kredit</t>
+  </si>
+  <si>
+    <t>Periode</t>
+  </si>
+  <si>
+    <t>Keterangan Field</t>
+  </si>
+  <si>
+    <t>Aset/Aktiva</t>
+  </si>
+  <si>
+    <t>Kewajiban/Passiva</t>
+  </si>
+  <si>
+    <t>Modal</t>
+  </si>
+  <si>
+    <t>Pendapatan</t>
+  </si>
+  <si>
+    <t>Beban</t>
+  </si>
+  <si>
+    <t>Debit</t>
+  </si>
+  <si>
+    <t>Kredit</t>
+  </si>
+  <si>
+    <t>* Kelompok akun tidak wajib diisi</t>
+  </si>
+  <si>
+    <t>CEK</t>
+  </si>
+  <si>
+    <t>* nama tidak wajib diisi</t>
+  </si>
+  <si>
+    <t>* kode silahkan cek di master data coa</t>
   </si>
 </sst>
 </file>
@@ -55,15 +104,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -71,13 +126,156 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,29 +590,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1608D1-1598-42B8-964E-722275E6728C}">
-  <dimension ref="B3:G4"/>
+  <dimension ref="B2:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -424,20 +644,14 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>3</v>
-      </c>
       <c r="C4">
-        <v>301</v>
-      </c>
-      <c r="D4" t="s">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="E4" s="1">
-        <v>20000</v>
+        <v>400</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>2023</v>
@@ -447,4 +661,176 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4207346-2D0B-4EF0-AD65-AD7C541CA8DF}">
+  <dimension ref="B2:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="6"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="6"/>
+      <c r="C4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="6"/>
+      <c r="C5" s="11">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="11">
+        <v>1</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="6"/>
+      <c r="C6" s="11">
+        <v>2</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="11">
+        <v>2</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="6"/>
+      <c r="C7" s="11">
+        <v>3</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+      <c r="C8" s="11">
+        <v>4</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="11">
+        <v>5</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="6"/>
+      <c r="C11" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="6"/>
+      <c r="C12" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="12"/>
+      <c r="C13" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>